--- a/conditions_baseline.xlsx
+++ b/conditions_baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCHOPY\eyehand_baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD373B-ED55-4938-BF33-AE82A570ACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444E5F-566F-4EC6-8D81-9D03A2AB9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -748,226 +748,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>11.314</v>
-      </c>
-      <c r="B33">
-        <v>-11.314</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>11.314</v>
-      </c>
-      <c r="B35">
-        <v>11.314</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>-11.314</v>
-      </c>
-      <c r="B37">
-        <v>11.314</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>-16</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>-16</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>11.314</v>
-      </c>
-      <c r="B40">
-        <v>-11.314</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>-11.314</v>
-      </c>
-      <c r="B41">
-        <v>-11.314</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11.314</v>
-      </c>
-      <c r="B44">
-        <v>11.314</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-11.314</v>
-      </c>
-      <c r="B45">
-        <v>11.314</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>-16</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>-16</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>-11.314</v>
-      </c>
-      <c r="B48">
-        <v>-11.314</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>11.314</v>
-      </c>
-      <c r="B49">
-        <v>-11.314</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>11.314</v>
-      </c>
-      <c r="B50">
-        <v>11.314</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conditions_baseline.xlsx
+++ b/conditions_baseline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSYCHOPY\eyehand_baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444E5F-566F-4EC6-8D81-9D03A2AB9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2A4E-B380-431E-9C9F-5D219F4DAB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -442,10 +442,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B4">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -453,10 +453,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B5">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B8">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B9">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B10">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B14">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B15">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B17">
-        <v>-11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B19">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B21">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B23">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B24">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B26">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="B27">
-        <v>11.314</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="B31">
-        <v>-11.314</v>
+        <v>-8.4849999999999994</v>
       </c>
       <c r="C31">
         <v>1</v>
